--- a/midi_splitter-bom.xlsx
+++ b/midi_splitter-bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_splitter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89634B38-B846-404D-9934-02C5ED3D9772}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B2D33-E41B-8441-8100-7EAB9B13657A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="960" windowWidth="27240" windowHeight="16540" xr2:uid="{A1306BC4-A011-3F4B-B468-299FA49377F1}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Диодный мост</t>
   </si>
   <si>
-    <t>L4940V5</t>
-  </si>
-  <si>
     <t>SS-16-22</t>
   </si>
   <si>
@@ -181,9 +178,6 @@
     <t>0.1 uF</t>
   </si>
   <si>
-    <t>#5005159492542510</t>
-  </si>
-  <si>
     <t>Регулятор 5В, 1.5А</t>
   </si>
   <si>
@@ -313,9 +307,6 @@
     <t>CL21B334KBFNNNE</t>
   </si>
   <si>
-    <t>RC0805FR-071KL</t>
-  </si>
-  <si>
     <t>RC0805FR-0710KL</t>
   </si>
   <si>
@@ -392,6 +383,87 @@
   </si>
   <si>
     <t>BC817.215</t>
+  </si>
+  <si>
+    <t>#2259339</t>
+  </si>
+  <si>
+    <t>PMV65XP.215</t>
+  </si>
+  <si>
+    <t>SN74LVC1G125</t>
+  </si>
+  <si>
+    <t>#2543224</t>
+  </si>
+  <si>
+    <t>#60026</t>
+  </si>
+  <si>
+    <t>#2584473</t>
+  </si>
+  <si>
+    <t>#62528</t>
+  </si>
+  <si>
+    <t>#71209</t>
+  </si>
+  <si>
+    <t>#34128</t>
+  </si>
+  <si>
+    <t>#2782271</t>
+  </si>
+  <si>
+    <t>#2782319</t>
+  </si>
+  <si>
+    <t>#358763</t>
+  </si>
+  <si>
+    <t>#817075</t>
+  </si>
+  <si>
+    <t>#863571</t>
+  </si>
+  <si>
+    <t>#186713</t>
+  </si>
+  <si>
+    <t>#247793</t>
+  </si>
+  <si>
+    <t>DS-5-01</t>
+  </si>
+  <si>
+    <t>#5009650439222510</t>
+  </si>
+  <si>
+    <t>#5009651953842510</t>
+  </si>
+  <si>
+    <t>CR0805-FX-1001ELF</t>
+  </si>
+  <si>
+    <t>#813964</t>
+  </si>
+  <si>
+    <t>#07361016</t>
+  </si>
+  <si>
+    <t>100 kOhm</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>Чип резистор, 0.125Вт, 100 кОм, 1%</t>
+  </si>
+  <si>
+    <t>#359706</t>
+  </si>
+  <si>
+    <t>RC0805FR-07100KL</t>
   </si>
 </sst>
 </file>
@@ -546,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -590,27 +662,6 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -626,9 +677,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -655,6 +703,31 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -974,7 +1047,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,54 +1055,54 @@
     <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="2" width="3.1640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="66.1640625" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
     <col min="13" max="13" width="12.83203125" customWidth="1"/>
     <col min="14" max="14" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="F1" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="34"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="59"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1037,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>5</v>
@@ -1059,75 +1132,81 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="54" t="s">
+      <c r="C3" s="48"/>
+      <c r="D3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="55" t="s">
-        <v>40</v>
+      <c r="E3" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="H3" s="20"/>
       <c r="I3" s="16"/>
       <c r="J3" s="24">
-        <v>85.89</v>
+        <v>86.36</v>
       </c>
       <c r="K3" s="13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="22">
         <f t="shared" ref="M3" si="0">J3*K3+L3</f>
-        <v>85.89</v>
+        <v>949.96</v>
       </c>
       <c r="N3" s="25">
         <f t="shared" ref="N3" si="1">M3/K3*B3</f>
-        <v>85.89</v>
+        <v>86.36</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="C4" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>124</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="11"/>
       <c r="J4" s="23">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="K4" s="8">
-        <v>1</v>
-      </c>
-      <c r="L4" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="L4" s="23">
+        <v>322</v>
+      </c>
       <c r="M4" s="23">
         <f t="shared" ref="M4" si="2">J4*K4+L4</f>
-        <v>10.3</v>
+        <v>426</v>
       </c>
       <c r="N4" s="26">
         <f t="shared" ref="N4" si="3">M4/K4*B4</f>
-        <v>10.3</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1138,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>15</v>
@@ -1147,841 +1226,900 @@
       <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="16">
-        <v>44070</v>
-      </c>
+      <c r="G5" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
       <c r="J5" s="24">
-        <v>4.6340000000000003</v>
+        <v>6.2</v>
       </c>
       <c r="K5" s="13">
-        <v>20</v>
-      </c>
-      <c r="L5" s="24">
-        <v>46.73</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L5" s="24"/>
       <c r="M5" s="24">
-        <f t="shared" ref="M5:M18" si="4">J5*K5+L5</f>
-        <v>139.41</v>
+        <f t="shared" ref="M5:M17" si="4">J5*K5+L5</f>
+        <v>62</v>
       </c>
       <c r="N5" s="27">
-        <f t="shared" ref="N5:N18" si="5">M5/K5*B5</f>
-        <v>6.9704999999999995</v>
+        <f t="shared" ref="N5:N17" si="5">M5/K5*B5</f>
+        <v>6.2</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="49" t="s">
-        <v>41</v>
+      <c r="A6" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>40</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="17"/>
+        <v>60</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>125</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="11"/>
       <c r="J6" s="23">
-        <v>52.5</v>
+        <v>12.7</v>
       </c>
       <c r="K6" s="8">
         <v>10</v>
       </c>
-      <c r="L6" s="23">
-        <v>236</v>
-      </c>
+      <c r="L6" s="23"/>
       <c r="M6" s="23">
+        <f t="shared" ref="M6" si="6">J6*K6+L6</f>
+        <v>127</v>
+      </c>
+      <c r="N6" s="26">
+        <f t="shared" ref="N6" si="7">M6/K6*B6</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="24">
+        <v>1.6</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24">
         <f t="shared" si="4"/>
-        <v>761</v>
-      </c>
-      <c r="N6" s="26">
+        <v>1.6</v>
+      </c>
+      <c r="N7" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="23">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K8" s="8">
+        <v>10</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
+        <f t="shared" ref="M8" si="8">J8*K8+L8</f>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="N8" s="26">
+        <f t="shared" ref="N8" si="9">M8/K8*B8</f>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="16">
+        <v>44291</v>
+      </c>
+      <c r="J9" s="24">
+        <v>9.8460000000000001</v>
+      </c>
+      <c r="K9" s="13">
+        <v>20</v>
+      </c>
+      <c r="L9" s="24">
+        <v>199.27</v>
+      </c>
+      <c r="M9" s="24">
+        <f t="shared" si="4"/>
+        <v>396.19000000000005</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="5"/>
+        <v>19.809500000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="8">
+      <c r="F10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="23">
+        <v>6.6</v>
+      </c>
+      <c r="K10" s="8">
+        <v>10</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23">
+        <f t="shared" ref="M10" si="10">J10*K10+L10</f>
+        <v>66</v>
+      </c>
+      <c r="N10" s="26">
+        <f t="shared" ref="N10" si="11">M10/K10*B10</f>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="13">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="16">
+        <v>44291</v>
+      </c>
+      <c r="J11" s="24">
+        <v>6.2220000000000004</v>
+      </c>
+      <c r="K11" s="13">
+        <v>70</v>
+      </c>
+      <c r="L11" s="24">
+        <v>678.95</v>
+      </c>
+      <c r="M11" s="24">
+        <f t="shared" si="4"/>
+        <v>1114.49</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="5"/>
+        <v>111.449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="23">
-        <v>12.4</v>
-      </c>
-      <c r="K7" s="8">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="23">
+        <v>38.17</v>
+      </c>
+      <c r="K12" s="8">
+        <v>10</v>
+      </c>
+      <c r="L12" s="23">
+        <v>556.52</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="4"/>
+        <v>938.22</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="5"/>
+        <v>93.822000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="24">
+        <v>0.13</v>
+      </c>
+      <c r="K13" s="13">
+        <v>130</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24">
+        <f t="shared" si="4"/>
+        <v>16.900000000000002</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="5"/>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23">
-        <f t="shared" ref="M7" si="6">J7*K7+L7</f>
-        <v>12.4</v>
-      </c>
-      <c r="N7" s="26">
-        <f t="shared" ref="N7" si="7">M7/K7*B7</f>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="24">
-        <v>1.6</v>
-      </c>
-      <c r="K8" s="13">
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="23">
+        <v>0.13</v>
+      </c>
+      <c r="K14" s="8">
         <v>10</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24">
+      <c r="L14" s="23"/>
+      <c r="M14" s="23">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="N8" s="27">
+        <v>1.3</v>
+      </c>
+      <c r="N14" s="26">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="24">
+        <v>0.17</v>
+      </c>
+      <c r="K15" s="13">
+        <v>30</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24">
+        <f t="shared" si="4"/>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="N15" s="27">
+        <f t="shared" si="5"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8">
+        <v>3</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K16" s="8">
+        <v>30</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23">
+        <f t="shared" si="4"/>
+        <v>8.4</v>
+      </c>
+      <c r="N16" s="26">
+        <f t="shared" si="5"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="24">
+        <v>0.53</v>
+      </c>
+      <c r="K17" s="13">
+        <v>100</v>
+      </c>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="5"/>
+        <v>2.6500000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="23">
-        <v>0.38</v>
-      </c>
-      <c r="K9" s="8">
+      <c r="C18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="23">
+        <v>0.76</v>
+      </c>
+      <c r="K18" s="8">
+        <v>10</v>
+      </c>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23">
+        <f t="shared" ref="M18" si="12">J18*K18+L18</f>
+        <v>7.6</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" ref="N18" si="13">M18/K18*B18</f>
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="29">
         <v>1</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23">
-        <f t="shared" ref="M9" si="8">J9*K9+L9</f>
-        <v>0.38</v>
-      </c>
-      <c r="N9" s="26">
-        <f t="shared" ref="N9" si="9">M9/K9*B9</f>
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="C19" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1812</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="28">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K19" s="29">
+        <v>10</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="24">
+        <f t="shared" ref="M19:M23" si="14">J19*K19+L19</f>
+        <v>23</v>
+      </c>
+      <c r="N19" s="27">
+        <f t="shared" ref="N19:N23" si="15">M19/K19*B19</f>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K20" s="8">
+        <v>10</v>
+      </c>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23">
+        <f t="shared" si="14"/>
+        <v>51</v>
+      </c>
+      <c r="N20" s="26">
+        <f t="shared" si="15"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="24">
         <v>20</v>
       </c>
-      <c r="B10" s="13">
+      <c r="K21" s="13">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="16">
-        <v>44216</v>
-      </c>
-      <c r="J10" s="24">
-        <v>9.5150000000000006</v>
-      </c>
-      <c r="K10" s="13">
-        <v>10</v>
-      </c>
-      <c r="L10" s="24">
-        <v>192.59</v>
-      </c>
-      <c r="M10" s="24">
-        <f t="shared" si="4"/>
-        <v>287.74</v>
-      </c>
-      <c r="N10" s="27">
-        <f t="shared" si="5"/>
-        <v>28.774000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="23">
-        <v>5.7</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23">
-        <f t="shared" ref="M11" si="10">J11*K11+L11</f>
-        <v>5.7</v>
-      </c>
-      <c r="N11" s="26">
-        <f t="shared" ref="N11" si="11">M11/K11*B11</f>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="13">
-        <v>7</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="16">
-        <v>44216</v>
-      </c>
-      <c r="J12" s="24">
-        <v>22.913</v>
-      </c>
-      <c r="K12" s="13">
-        <v>70</v>
-      </c>
-      <c r="L12" s="24">
-        <v>153.77000000000001</v>
-      </c>
-      <c r="M12" s="24">
-        <f t="shared" si="4"/>
-        <v>1757.68</v>
-      </c>
-      <c r="N12" s="27">
-        <f t="shared" si="5"/>
-        <v>175.768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="23">
-        <v>36.905999999999999</v>
-      </c>
-      <c r="K13" s="8">
-        <v>10</v>
-      </c>
-      <c r="L13" s="23">
-        <v>538.09</v>
-      </c>
-      <c r="M13" s="23">
-        <f t="shared" si="4"/>
-        <v>907.15000000000009</v>
-      </c>
-      <c r="N13" s="26">
-        <f t="shared" si="5"/>
-        <v>90.715000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="13">
-        <v>13</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="24">
-        <v>0.12</v>
-      </c>
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="N14" s="27">
-        <f t="shared" si="5"/>
-        <v>1.56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="23">
-        <v>0.12</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="N15" s="26">
-        <f t="shared" si="5"/>
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="13">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="24">
-        <v>0.16</v>
-      </c>
-      <c r="K16" s="13">
-        <v>1</v>
-      </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="N16" s="27">
-        <f t="shared" si="5"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="23">
-        <v>0.16</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23">
-        <f t="shared" si="4"/>
-        <v>0.16</v>
-      </c>
-      <c r="N17" s="26">
-        <f t="shared" si="5"/>
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="13">
-        <v>5</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="24">
-        <v>0.45</v>
-      </c>
-      <c r="K18" s="13">
-        <v>1</v>
-      </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24">
-        <f t="shared" si="4"/>
-        <v>0.45</v>
-      </c>
-      <c r="N18" s="27">
-        <f t="shared" si="5"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="8">
-        <v>1</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="23">
-        <v>0.66</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1</v>
-      </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23">
-        <f t="shared" ref="M19" si="12">J19*K19+L19</f>
-        <v>0.66</v>
-      </c>
-      <c r="N19" s="26">
-        <f t="shared" ref="N19" si="13">M19/K19*B19</f>
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="36">
-        <v>1</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1812</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="28">
-        <v>2</v>
-      </c>
-      <c r="K20" s="36">
-        <v>1</v>
-      </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="24">
-        <f t="shared" ref="M20:M24" si="14">J20*K20+L20</f>
-        <v>2</v>
-      </c>
-      <c r="N20" s="27">
-        <f t="shared" ref="N20:N24" si="15">M20/K20*B20</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="23">
-        <v>4.8</v>
-      </c>
-      <c r="K21" s="8">
-        <v>1</v>
-      </c>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23">
-        <f t="shared" si="14"/>
-        <v>4.8</v>
-      </c>
-      <c r="N21" s="26">
-        <f t="shared" si="15"/>
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="13">
-        <v>1</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="24">
-        <v>20</v>
-      </c>
-      <c r="K22" s="13">
-        <v>1</v>
-      </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24">
+      <c r="L21" s="24"/>
+      <c r="M21" s="24">
         <f t="shared" si="14"/>
         <v>20</v>
       </c>
-      <c r="N22" s="27">
+      <c r="N21" s="27">
         <f t="shared" si="15"/>
         <v>20</v>
       </c>
     </row>
+    <row r="22" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="23">
+        <v>3.2</v>
+      </c>
+      <c r="K22" s="31">
+        <v>20</v>
+      </c>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23">
+        <f t="shared" si="14"/>
+        <v>64</v>
+      </c>
+      <c r="N22" s="23">
+        <f t="shared" si="15"/>
+        <v>6.4</v>
+      </c>
+    </row>
     <row r="23" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="8">
-        <v>2</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="21" t="s">
+      <c r="A23" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="17" t="s">
+      <c r="B23" s="29">
+        <v>1</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="23">
+      <c r="E23" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37">
         <v>2.6</v>
       </c>
       <c r="K23" s="38">
-        <v>1</v>
-      </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23">
+        <v>10</v>
+      </c>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37">
         <f t="shared" si="14"/>
-        <v>2.6</v>
-      </c>
-      <c r="N23" s="23">
-        <f t="shared" si="15"/>
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="36">
-        <v>1</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="44">
-        <v>2.6</v>
-      </c>
-      <c r="K24" s="45">
-        <v>1</v>
-      </c>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44">
-        <f t="shared" si="14"/>
-        <v>2.6</v>
-      </c>
-      <c r="N24" s="44">
+        <v>26</v>
+      </c>
+      <c r="N23" s="37">
         <f t="shared" si="15"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B25" s="8">
+      <c r="F24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="23">
+        <v>0.88</v>
+      </c>
+      <c r="K24" s="31">
+        <v>10</v>
+      </c>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23">
+        <f t="shared" ref="M24:M25" si="16">J24*K24+L24</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N24" s="23">
+        <f t="shared" ref="N24:N25" si="17">M24/K24*B24</f>
+        <v>0.88000000000000012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="13">
         <v>1</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="H25" s="10"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="23">
-        <v>0.82</v>
-      </c>
-      <c r="K25" s="38">
-        <v>1</v>
-      </c>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23">
-        <f t="shared" ref="M25" si="16">J25*K25+L25</f>
-        <v>0.82</v>
-      </c>
-      <c r="N25" s="23">
-        <f t="shared" ref="N25" si="17">M25/K25*B25</f>
-        <v>0.82</v>
+      <c r="C25" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="24">
+        <v>0.18</v>
+      </c>
+      <c r="K25" s="13">
+        <v>20</v>
+      </c>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24">
+        <f t="shared" si="16"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="N25" s="27">
+        <f t="shared" si="17"/>
+        <v>0.18</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L26" s="28">
+        <f>SUM(L3:L25)</f>
+        <v>1756.74</v>
+      </c>
+      <c r="M26" s="28">
+        <f>SUM(M3:M24)</f>
+        <v>4372.1600000000008</v>
+      </c>
       <c r="N26" s="28">
-        <f>SUM(N3:N25)</f>
-        <v>457.86750000000012</v>
+        <f>SUM(N3:N24)</f>
+        <v>423.96049999999997</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="7">
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" xr:uid="{A85270A0-A135-6F44-A3B6-7FCBECF36A93}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{CD6BF228-73BC-D54A-9597-EA4ADEA46408}"/>
-    <hyperlink ref="F10" r:id="rId3" xr:uid="{114ED00A-CF2E-1249-AF27-8CDCFDC52AAE}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{93A0D3F3-083E-5C4E-BE8B-04CE275DC0D7}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{CF6D2DE5-9B43-0B4D-B5C6-114591B8ECF3}"/>
-    <hyperlink ref="G9" r:id="rId6" xr:uid="{7EFB4F68-FF1E-C844-B708-2FE6A49D66F4}"/>
-    <hyperlink ref="F7" r:id="rId7" xr:uid="{AE0E39EF-2B42-5244-89BE-60710E8EE07F}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{FA25E43E-1A72-C04A-BE6B-4C0FD389C5F6}"/>
-    <hyperlink ref="F20" r:id="rId9" xr:uid="{08A5479A-2A28-EB42-A082-E8271CE01000}"/>
-    <hyperlink ref="F3" r:id="rId10" xr:uid="{C66A23A2-DBFD-D940-BB00-F7463DF82356}"/>
-    <hyperlink ref="F21" r:id="rId11" xr:uid="{CE020643-622D-AE47-8530-E6288740A032}"/>
-    <hyperlink ref="F22" r:id="rId12" xr:uid="{09754DF9-F843-564A-A8FF-58979B35DB0F}"/>
-    <hyperlink ref="G23" r:id="rId13" xr:uid="{E07B43D2-6758-5C4D-A681-71837CB15312}"/>
-    <hyperlink ref="G24" r:id="rId14" xr:uid="{7F77375C-5490-6A4A-A4EB-93DA1835911C}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{93B0E396-604D-4D4E-9E19-70EDE1002B0C}"/>
-    <hyperlink ref="F19" r:id="rId16" xr:uid="{17564106-2205-024D-9714-6DE6AD321C23}"/>
-    <hyperlink ref="F17" r:id="rId17" xr:uid="{5A09D6C8-6258-0041-A46E-3360C771AD09}"/>
-    <hyperlink ref="F16" r:id="rId18" xr:uid="{5754B031-EF4B-9944-9702-4399E12056CE}"/>
-    <hyperlink ref="F14" r:id="rId19" xr:uid="{B39E70B0-8272-F743-B698-12A0E769F710}"/>
-    <hyperlink ref="F15" r:id="rId20" xr:uid="{67025D60-BF2C-154A-A83D-17E535D2DF32}"/>
-    <hyperlink ref="F4" r:id="rId21" xr:uid="{3CFB7808-5785-9741-B6B5-B5BD00015B32}"/>
-    <hyperlink ref="G25" r:id="rId22" display="338618" xr:uid="{10C448D5-14EF-9E47-94A6-5FFA6FCC9ED6}"/>
-    <hyperlink ref="F25" r:id="rId23" xr:uid="{066BCB09-5AFE-E241-8FA3-B67C45413CE9}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{CD6BF228-73BC-D54A-9597-EA4ADEA46408}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{114ED00A-CF2E-1249-AF27-8CDCFDC52AAE}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{93A0D3F3-083E-5C4E-BE8B-04CE275DC0D7}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{7EFB4F68-FF1E-C844-B708-2FE6A49D66F4}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{AE0E39EF-2B42-5244-89BE-60710E8EE07F}"/>
+    <hyperlink ref="F10" r:id="rId7" xr:uid="{FA25E43E-1A72-C04A-BE6B-4C0FD389C5F6}"/>
+    <hyperlink ref="F19" r:id="rId8" xr:uid="{08A5479A-2A28-EB42-A082-E8271CE01000}"/>
+    <hyperlink ref="F3" r:id="rId9" xr:uid="{C66A23A2-DBFD-D940-BB00-F7463DF82356}"/>
+    <hyperlink ref="G22" r:id="rId10" xr:uid="{E07B43D2-6758-5C4D-A681-71837CB15312}"/>
+    <hyperlink ref="G23" r:id="rId11" xr:uid="{7F77375C-5490-6A4A-A4EB-93DA1835911C}"/>
+    <hyperlink ref="F17" r:id="rId12" xr:uid="{93B0E396-604D-4D4E-9E19-70EDE1002B0C}"/>
+    <hyperlink ref="F18" r:id="rId13" xr:uid="{17564106-2205-024D-9714-6DE6AD321C23}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{5A09D6C8-6258-0041-A46E-3360C771AD09}"/>
+    <hyperlink ref="F15" r:id="rId15" xr:uid="{5754B031-EF4B-9944-9702-4399E12056CE}"/>
+    <hyperlink ref="F13" r:id="rId16" xr:uid="{B39E70B0-8272-F743-B698-12A0E769F710}"/>
+    <hyperlink ref="F14" r:id="rId17" xr:uid="{67025D60-BF2C-154A-A83D-17E535D2DF32}"/>
+    <hyperlink ref="F4" r:id="rId18" xr:uid="{3CFB7808-5785-9741-B6B5-B5BD00015B32}"/>
+    <hyperlink ref="G24" r:id="rId19" display="338618" xr:uid="{10C448D5-14EF-9E47-94A6-5FFA6FCC9ED6}"/>
+    <hyperlink ref="F24" r:id="rId20" xr:uid="{066BCB09-5AFE-E241-8FA3-B67C45413CE9}"/>
+    <hyperlink ref="F8" r:id="rId21" xr:uid="{FCA10F6F-0E2F-A745-BEA5-299232476948}"/>
+    <hyperlink ref="G20" r:id="rId22" xr:uid="{613A156B-2A3F-EA44-BE68-A10830DA93E5}"/>
+    <hyperlink ref="F20" r:id="rId23" xr:uid="{5179697E-2EBB-D94B-88A9-A5A89DBA10C2}"/>
+    <hyperlink ref="F22" r:id="rId24" xr:uid="{2886ABF2-7BA7-A44B-9F27-B67939E671AE}"/>
+    <hyperlink ref="F23" r:id="rId25" xr:uid="{FC993E15-25DF-1641-B5A4-E1ECEFE4D025}"/>
+    <hyperlink ref="G21" r:id="rId26" xr:uid="{6D9CDD56-55E4-FC40-968B-D9A59E13F608}"/>
+    <hyperlink ref="F21" r:id="rId27" xr:uid="{8CBE15EC-1CE7-554E-A629-0BD9B36B213A}"/>
+    <hyperlink ref="G3" r:id="rId28" display="60026" xr:uid="{90AB44FE-71A6-1146-A2F9-381957D452D2}"/>
+    <hyperlink ref="G4" r:id="rId29" xr:uid="{8EBD2768-259D-1C46-BDF7-4A5760666E5A}"/>
+    <hyperlink ref="G6" r:id="rId30" xr:uid="{DF40C92A-F8A9-B643-9C59-CC7067E3DE51}"/>
+    <hyperlink ref="G7" r:id="rId31" xr:uid="{5460669D-C724-4942-BEA4-B4DDE8FB3CAA}"/>
+    <hyperlink ref="G10" r:id="rId32" xr:uid="{BFE4423F-C947-114E-8BD2-CBCDE583F0D3}"/>
+    <hyperlink ref="G13" r:id="rId33" xr:uid="{ECB604CB-66CF-D14C-B6E5-BA354DBE50F6}"/>
+    <hyperlink ref="G14" r:id="rId34" xr:uid="{7CD08184-70EB-DC4C-97BC-910C5306B1BF}"/>
+    <hyperlink ref="G15" r:id="rId35" xr:uid="{88AF325C-C670-AB48-B224-2E4FC1CA9179}"/>
+    <hyperlink ref="G16" r:id="rId36" xr:uid="{483457BE-3262-8A40-9B25-4C17B13550EB}"/>
+    <hyperlink ref="G17" r:id="rId37" xr:uid="{1CC9BF49-D277-B34D-961C-92BE8267175F}"/>
+    <hyperlink ref="G18" r:id="rId38" xr:uid="{B7366863-F543-A245-82E3-60976730A21C}"/>
+    <hyperlink ref="G19" r:id="rId39" xr:uid="{8206F53C-A4E8-5749-8BE5-2BCFB559AB8E}"/>
+    <hyperlink ref="G5" r:id="rId40" xr:uid="{B3AD4667-DA8A-904A-9CF2-618CCFA38D0B}"/>
+    <hyperlink ref="F25" r:id="rId41" xr:uid="{F4ECFD96-C404-9A44-BD56-5DA215ABBF8B}"/>
+    <hyperlink ref="G25" r:id="rId42" xr:uid="{70B091ED-C1A4-3A44-BDFC-C6D7327CDBCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E14:E17" numberStoredAsText="1"/>
+    <ignoredError sqref="E13:E16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEE308A-D149-EF40-BE09-A34256E797F5}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1995,19 +2133,19 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -2016,24 +2154,24 @@
         <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="50">
+        <v>111</v>
+      </c>
+      <c r="D2" s="42">
         <v>44217</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2">
         <v>369.06</v>
@@ -2048,19 +2186,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="50">
+        <v>100</v>
+      </c>
+      <c r="D3" s="42">
         <v>44215</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>101</v>
+      <c r="E3" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="F3">
         <v>1603.88</v>
@@ -2075,19 +2213,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="50">
+        <v>100</v>
+      </c>
+      <c r="D4" s="42">
         <v>44215</v>
       </c>
-      <c r="E4" s="37" t="s">
-        <v>100</v>
+      <c r="E4" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="F4">
         <v>95.15</v>
@@ -2102,13 +2240,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="50">
+        <v>101</v>
+      </c>
+      <c r="D5" s="42">
         <v>44216</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>105</v>
+      <c r="E5" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="F5">
         <f>H5-G5</f>
@@ -2123,14 +2261,144 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>10</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:G6" si="0">SUM(F2:F5)</f>
+        <v>3728.3900000000003</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1206.45</v>
       </c>
       <c r="H6">
         <f>SUM(H2:H5)</f>
         <v>4934.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="42">
+        <v>44291</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8">
+        <v>381.7</v>
+      </c>
+      <c r="G8">
+        <v>556.52</v>
+      </c>
+      <c r="H8">
+        <f>F8+G8</f>
+        <v>938.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="42">
+        <v>44291</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9">
+        <v>435.54</v>
+      </c>
+      <c r="G9">
+        <v>678.95</v>
+      </c>
+      <c r="H9">
+        <f>F9+G9</f>
+        <v>1114.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="42">
+        <v>44291</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <v>196.92</v>
+      </c>
+      <c r="G10">
+        <v>199.27</v>
+      </c>
+      <c r="H10">
+        <f>F10+G10</f>
+        <v>396.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="42">
+        <v>44291</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11">
+        <f>H11-G11</f>
+        <v>1739.2399999999998</v>
+      </c>
+      <c r="G11">
+        <v>322</v>
+      </c>
+      <c r="H11">
+        <v>2061.2399999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12:G12" si="1">SUM(F8:F11)</f>
+        <v>2753.3999999999996</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1756.74</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H8:H11)</f>
+        <v>4510.1399999999994</v>
       </c>
     </row>
   </sheetData>
@@ -2138,6 +2406,9 @@
     <hyperlink ref="E3" r:id="rId1" xr:uid="{D550EA50-9C44-A443-90F2-FDA717C60B8A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{9AF8BA5C-986A-9F40-933A-5891D237766F}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{95585293-C21A-E642-8F4E-2A1AFD8DB68D}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{D0BBF5FA-E15F-F34C-B2F0-1C2ED956C2F2}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{A8652A87-CDD5-E242-B046-8D81EE22DE50}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{259EDE57-A3E7-E541-8A3F-7C0D4CF4BF20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/midi_splitter-bom.xlsx
+++ b/midi_splitter-bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_splitter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A84B2D33-E41B-8441-8100-7EAB9B13657A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED25C8A-E63E-1F4B-89BF-A277D2D73FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="960" windowWidth="27240" windowHeight="16540" xr2:uid="{A1306BC4-A011-3F4B-B468-299FA49377F1}"/>
+    <workbookView xWindow="1180" yWindow="960" windowWidth="27240" windowHeight="16540" activeTab="1" xr2:uid="{A1306BC4-A011-3F4B-B468-299FA49377F1}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -464,6 +464,24 @@
   </si>
   <si>
     <t>RC0805FR-07100KL</t>
+  </si>
+  <si>
+    <t>#5016623841712510</t>
+  </si>
+  <si>
+    <t>#07796164</t>
+  </si>
+  <si>
+    <t>#07831475</t>
+  </si>
+  <si>
+    <t>Гнездо питания 2,0х5,5мм на панель</t>
+  </si>
+  <si>
+    <t>#2200638</t>
+  </si>
+  <si>
+    <t>L-KLS1-DC-005A-2.0</t>
   </si>
 </sst>
 </file>
@@ -618,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -728,6 +746,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1044,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE193F1-82BE-8949-B37B-61CF8376ED9D}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1059,7 +1083,7 @@
     <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="7.1640625" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
@@ -1170,13 +1194,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="60" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -1206,855 +1230,891 @@
       </c>
       <c r="N4" s="26">
         <f t="shared" ref="N4" si="3">M4/K4*B4</f>
-        <v>42.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>10</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23">
+        <f t="shared" ref="M5" si="4">J5*K5+L5</f>
+        <v>63</v>
+      </c>
+      <c r="N5" s="26">
+        <f t="shared" ref="N5" si="5">M5/K5*B5</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14" t="s">
+      <c r="E6" s="15"/>
+      <c r="F6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G6" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="24">
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="24">
         <v>6.2</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K6" s="13">
         <v>10</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24">
-        <f t="shared" ref="M5:M17" si="4">J5*K5+L5</f>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24">
+        <f t="shared" ref="M6:M18" si="6">J6*K6+L6</f>
         <v>62</v>
       </c>
-      <c r="N5" s="27">
-        <f t="shared" ref="N5:N17" si="5">M5/K5*B5</f>
+      <c r="N6" s="27">
+        <f t="shared" ref="N6:N18" si="7">M6/K6*B6</f>
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C7" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D7" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="23">
+      <c r="H7" s="17"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="23">
         <v>12.7</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K7" s="8">
         <v>10</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23">
-        <f t="shared" ref="M6" si="6">J6*K6+L6</f>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23">
+        <f t="shared" ref="M7" si="8">J7*K7+L7</f>
         <v>127</v>
       </c>
-      <c r="N6" s="26">
-        <f t="shared" ref="N6" si="7">M6/K6*B6</f>
+      <c r="N7" s="26">
+        <f t="shared" ref="N7" si="9">M7/K7*B7</f>
         <v>12.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G8" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="24">
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="24">
         <v>1.6</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K8" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24">
-        <f t="shared" si="4"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24">
+        <f t="shared" si="6"/>
         <v>1.6</v>
       </c>
-      <c r="N7" s="27">
-        <f t="shared" si="5"/>
+      <c r="N8" s="27">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B9" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E9" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="23">
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="23">
         <v>0.56000000000000005</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K9" s="8">
         <v>10</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23">
-        <f t="shared" ref="M8" si="8">J8*K8+L8</f>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23">
+        <f t="shared" ref="M9" si="10">J9*K9+L9</f>
         <v>5.6000000000000005</v>
       </c>
-      <c r="N8" s="26">
-        <f t="shared" ref="N8" si="9">M8/K8*B8</f>
+      <c r="N9" s="26">
+        <f t="shared" ref="N9" si="11">M9/K9*B9</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B10" s="13">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I10" s="16">
         <v>44291</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J10" s="24">
         <v>9.8460000000000001</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K10" s="13">
         <v>20</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L10" s="24">
         <v>199.27</v>
       </c>
-      <c r="M9" s="24">
-        <f t="shared" si="4"/>
+      <c r="M10" s="24">
+        <f t="shared" si="6"/>
         <v>396.19000000000005</v>
       </c>
-      <c r="N9" s="27">
-        <f t="shared" si="5"/>
+      <c r="N10" s="27">
+        <f t="shared" si="7"/>
         <v>19.809500000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G11" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="23">
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="23">
         <v>6.6</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K11" s="8">
         <v>10</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23">
-        <f t="shared" ref="M10" si="10">J10*K10+L10</f>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23">
+        <f t="shared" ref="M11" si="12">J11*K11+L11</f>
         <v>66</v>
       </c>
-      <c r="N10" s="26">
-        <f t="shared" ref="N10" si="11">M10/K10*B10</f>
+      <c r="N11" s="26">
+        <f t="shared" ref="N11" si="13">M11/K11*B11</f>
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C12" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="G12" s="15"/>
+      <c r="H12" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I12" s="16">
         <v>44291</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J12" s="24">
         <v>6.2220000000000004</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K12" s="13">
         <v>70</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L12" s="24">
         <v>678.95</v>
       </c>
-      <c r="M11" s="24">
-        <f t="shared" si="4"/>
+      <c r="M12" s="24">
+        <f t="shared" si="6"/>
         <v>1114.49</v>
       </c>
-      <c r="N11" s="27">
-        <f t="shared" si="5"/>
+      <c r="N12" s="27">
+        <f t="shared" si="7"/>
         <v>111.449</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B13" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="23">
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="23">
         <v>38.17</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K13" s="8">
         <v>10</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L13" s="23">
         <v>556.52</v>
       </c>
-      <c r="M12" s="23">
-        <f t="shared" si="4"/>
+      <c r="M13" s="23">
+        <f t="shared" si="6"/>
         <v>938.22</v>
       </c>
-      <c r="N12" s="26">
-        <f t="shared" si="5"/>
+      <c r="N13" s="26">
+        <f t="shared" si="7"/>
         <v>93.822000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B14" s="13">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="24">
+      <c r="H14" s="15"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="24">
         <v>0.13</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K14" s="13">
         <v>130</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24">
-        <f t="shared" si="4"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24">
+        <f t="shared" si="6"/>
         <v>16.900000000000002</v>
       </c>
-      <c r="N13" s="27">
-        <f t="shared" si="5"/>
+      <c r="N14" s="27">
+        <f t="shared" si="7"/>
         <v>1.69</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B15" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="23">
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="23">
         <v>0.13</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K15" s="8">
         <v>10</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23">
-        <f t="shared" si="4"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23">
+        <f t="shared" si="6"/>
         <v>1.3</v>
       </c>
-      <c r="N14" s="26">
-        <f t="shared" si="5"/>
+      <c r="N15" s="26">
+        <f t="shared" si="7"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="24">
+      <c r="H16" s="15"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="24">
         <v>0.17</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K16" s="13">
         <v>30</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24">
-        <f t="shared" si="4"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24">
+        <f t="shared" si="6"/>
         <v>5.1000000000000005</v>
       </c>
-      <c r="N15" s="27">
-        <f t="shared" si="5"/>
+      <c r="N16" s="27">
+        <f t="shared" si="7"/>
         <v>0.51</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B17" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G17" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="23">
+      <c r="H17" s="10"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="23">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K17" s="8">
         <v>30</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23">
-        <f t="shared" si="4"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23">
+        <f t="shared" si="6"/>
         <v>8.4</v>
       </c>
-      <c r="N16" s="26">
-        <f t="shared" si="5"/>
+      <c r="N17" s="26">
+        <f t="shared" si="7"/>
         <v>0.84000000000000008</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B18" s="13">
         <v>5</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C18" s="48" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D18" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F18" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G18" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="24">
+      <c r="H18" s="15"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="24">
         <v>0.53</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K18" s="13">
         <v>100</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24">
-        <f t="shared" si="4"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24">
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="N17" s="27">
-        <f t="shared" si="5"/>
+      <c r="N18" s="27">
+        <f t="shared" si="7"/>
         <v>2.6500000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G19" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="23">
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="23">
         <v>0.76</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K19" s="8">
         <v>10</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23">
-        <f t="shared" ref="M18" si="12">J18*K18+L18</f>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23">
+        <f t="shared" ref="M19" si="14">J19*K19+L19</f>
         <v>7.6</v>
       </c>
-      <c r="N18" s="26">
-        <f t="shared" ref="N18" si="13">M18/K18*B18</f>
+      <c r="N19" s="26">
+        <f t="shared" ref="N19" si="15">M19/K19*B19</f>
         <v>0.76</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B20" s="29">
         <v>1</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>1812</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F20" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G20" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J20" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K20" s="29">
         <v>10</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="24">
-        <f t="shared" ref="M19:M23" si="14">J19*K19+L19</f>
+      <c r="L20" s="28"/>
+      <c r="M20" s="24">
+        <f t="shared" ref="M20:M24" si="16">J20*K20+L20</f>
         <v>23</v>
       </c>
-      <c r="N19" s="27">
-        <f t="shared" ref="N19:N23" si="15">M19/K19*B19</f>
+      <c r="N20" s="27">
+        <f t="shared" ref="N20:N24" si="17">M20/K20*B20</f>
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B21" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="9" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G21" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="23">
+      <c r="H21" s="10"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="23">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K21" s="8">
         <v>10</v>
       </c>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23">
-        <f t="shared" si="14"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23">
+        <f t="shared" si="16"/>
         <v>51</v>
       </c>
-      <c r="N20" s="26">
-        <f t="shared" si="15"/>
+      <c r="N21" s="26">
+        <f t="shared" si="17"/>
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B22" s="13">
         <v>1</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G22" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="24">
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="24">
         <v>20</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K22" s="13">
         <v>1</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24">
-        <f t="shared" si="14"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24">
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
-      <c r="N21" s="27">
-        <f t="shared" si="15"/>
+      <c r="N22" s="27">
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+    <row r="23" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B23" s="8">
         <v>2</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E23" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G23" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="23">
+      <c r="H23" s="10"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="23">
         <v>3.2</v>
       </c>
-      <c r="K22" s="31">
+      <c r="K23" s="31">
         <v>20</v>
       </c>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23">
-        <f t="shared" si="14"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23">
+        <f t="shared" si="16"/>
         <v>64</v>
       </c>
-      <c r="N22" s="23">
-        <f t="shared" si="15"/>
+      <c r="N23" s="23">
+        <f t="shared" si="17"/>
         <v>6.4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="45" t="s">
+    <row r="24" spans="1:14" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="29">
+      <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C24" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D24" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="E23" s="50" t="s">
+      <c r="E24" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="33" t="s">
+      <c r="F24" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G24" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37">
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37">
         <v>2.6</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K24" s="38">
         <v>10</v>
       </c>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37">
-        <f t="shared" si="14"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37">
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
-      <c r="N23" s="37">
-        <f t="shared" si="15"/>
+      <c r="N24" s="37">
+        <f t="shared" si="17"/>
         <v>2.6</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+    <row r="25" spans="1:14" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B25" s="8">
         <v>1</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C25" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D25" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E25" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="23">
+      <c r="H25" s="10"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="23">
         <v>0.88</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K25" s="31">
         <v>10</v>
       </c>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23">
-        <f t="shared" ref="M24:M25" si="16">J24*K24+L24</f>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23">
+        <f t="shared" ref="M25:M26" si="18">J25*K25+L25</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="N24" s="23">
-        <f t="shared" ref="N24:N25" si="17">M24/K24*B24</f>
+      <c r="N25" s="23">
+        <f t="shared" ref="N25:N26" si="19">M25/K25*B25</f>
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B26" s="13">
         <v>1</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E26" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F26" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G26" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="24">
+      <c r="H26" s="15"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="24">
         <v>0.18</v>
       </c>
-      <c r="K25" s="13">
+      <c r="K26" s="13">
         <v>20</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24">
-        <f t="shared" si="16"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24">
+        <f t="shared" si="18"/>
         <v>3.5999999999999996</v>
       </c>
-      <c r="N25" s="27">
-        <f t="shared" si="17"/>
+      <c r="N26" s="27">
+        <f t="shared" si="19"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L26" s="28">
-        <f>SUM(L3:L25)</f>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L27" s="28">
+        <f>SUM(L3:L26)</f>
         <v>1756.74</v>
       </c>
-      <c r="M26" s="28">
-        <f>SUM(M3:M24)</f>
-        <v>4372.1600000000008</v>
-      </c>
-      <c r="N26" s="28">
-        <f>SUM(N3:N24)</f>
-        <v>423.96049999999997</v>
+      <c r="M27" s="28">
+        <f>SUM(M3:M25)</f>
+        <v>4435.1600000000008</v>
+      </c>
+      <c r="N27" s="28">
+        <f>SUM(N3:N25)</f>
+        <v>387.66049999999996</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:A2"/>
@@ -2064,62 +2124,66 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" xr:uid="{A85270A0-A135-6F44-A3B6-7FCBECF36A93}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{CD6BF228-73BC-D54A-9597-EA4ADEA46408}"/>
-    <hyperlink ref="F9" r:id="rId3" xr:uid="{114ED00A-CF2E-1249-AF27-8CDCFDC52AAE}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{93A0D3F3-083E-5C4E-BE8B-04CE275DC0D7}"/>
-    <hyperlink ref="G8" r:id="rId5" xr:uid="{7EFB4F68-FF1E-C844-B708-2FE6A49D66F4}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{AE0E39EF-2B42-5244-89BE-60710E8EE07F}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{FA25E43E-1A72-C04A-BE6B-4C0FD389C5F6}"/>
-    <hyperlink ref="F19" r:id="rId8" xr:uid="{08A5479A-2A28-EB42-A082-E8271CE01000}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{A85270A0-A135-6F44-A3B6-7FCBECF36A93}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{CD6BF228-73BC-D54A-9597-EA4ADEA46408}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{114ED00A-CF2E-1249-AF27-8CDCFDC52AAE}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{93A0D3F3-083E-5C4E-BE8B-04CE275DC0D7}"/>
+    <hyperlink ref="G9" r:id="rId5" xr:uid="{7EFB4F68-FF1E-C844-B708-2FE6A49D66F4}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{AE0E39EF-2B42-5244-89BE-60710E8EE07F}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{FA25E43E-1A72-C04A-BE6B-4C0FD389C5F6}"/>
+    <hyperlink ref="F20" r:id="rId8" xr:uid="{08A5479A-2A28-EB42-A082-E8271CE01000}"/>
     <hyperlink ref="F3" r:id="rId9" xr:uid="{C66A23A2-DBFD-D940-BB00-F7463DF82356}"/>
-    <hyperlink ref="G22" r:id="rId10" xr:uid="{E07B43D2-6758-5C4D-A681-71837CB15312}"/>
-    <hyperlink ref="G23" r:id="rId11" xr:uid="{7F77375C-5490-6A4A-A4EB-93DA1835911C}"/>
-    <hyperlink ref="F17" r:id="rId12" xr:uid="{93B0E396-604D-4D4E-9E19-70EDE1002B0C}"/>
-    <hyperlink ref="F18" r:id="rId13" xr:uid="{17564106-2205-024D-9714-6DE6AD321C23}"/>
-    <hyperlink ref="F16" r:id="rId14" xr:uid="{5A09D6C8-6258-0041-A46E-3360C771AD09}"/>
-    <hyperlink ref="F15" r:id="rId15" xr:uid="{5754B031-EF4B-9944-9702-4399E12056CE}"/>
-    <hyperlink ref="F13" r:id="rId16" xr:uid="{B39E70B0-8272-F743-B698-12A0E769F710}"/>
-    <hyperlink ref="F14" r:id="rId17" xr:uid="{67025D60-BF2C-154A-A83D-17E535D2DF32}"/>
+    <hyperlink ref="G23" r:id="rId10" xr:uid="{E07B43D2-6758-5C4D-A681-71837CB15312}"/>
+    <hyperlink ref="G24" r:id="rId11" xr:uid="{7F77375C-5490-6A4A-A4EB-93DA1835911C}"/>
+    <hyperlink ref="F18" r:id="rId12" xr:uid="{93B0E396-604D-4D4E-9E19-70EDE1002B0C}"/>
+    <hyperlink ref="F19" r:id="rId13" xr:uid="{17564106-2205-024D-9714-6DE6AD321C23}"/>
+    <hyperlink ref="F17" r:id="rId14" xr:uid="{5A09D6C8-6258-0041-A46E-3360C771AD09}"/>
+    <hyperlink ref="F16" r:id="rId15" xr:uid="{5754B031-EF4B-9944-9702-4399E12056CE}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{B39E70B0-8272-F743-B698-12A0E769F710}"/>
+    <hyperlink ref="F15" r:id="rId17" xr:uid="{67025D60-BF2C-154A-A83D-17E535D2DF32}"/>
     <hyperlink ref="F4" r:id="rId18" xr:uid="{3CFB7808-5785-9741-B6B5-B5BD00015B32}"/>
-    <hyperlink ref="G24" r:id="rId19" display="338618" xr:uid="{10C448D5-14EF-9E47-94A6-5FFA6FCC9ED6}"/>
-    <hyperlink ref="F24" r:id="rId20" xr:uid="{066BCB09-5AFE-E241-8FA3-B67C45413CE9}"/>
-    <hyperlink ref="F8" r:id="rId21" xr:uid="{FCA10F6F-0E2F-A745-BEA5-299232476948}"/>
-    <hyperlink ref="G20" r:id="rId22" xr:uid="{613A156B-2A3F-EA44-BE68-A10830DA93E5}"/>
-    <hyperlink ref="F20" r:id="rId23" xr:uid="{5179697E-2EBB-D94B-88A9-A5A89DBA10C2}"/>
-    <hyperlink ref="F22" r:id="rId24" xr:uid="{2886ABF2-7BA7-A44B-9F27-B67939E671AE}"/>
-    <hyperlink ref="F23" r:id="rId25" xr:uid="{FC993E15-25DF-1641-B5A4-E1ECEFE4D025}"/>
-    <hyperlink ref="G21" r:id="rId26" xr:uid="{6D9CDD56-55E4-FC40-968B-D9A59E13F608}"/>
-    <hyperlink ref="F21" r:id="rId27" xr:uid="{8CBE15EC-1CE7-554E-A629-0BD9B36B213A}"/>
+    <hyperlink ref="G25" r:id="rId19" display="338618" xr:uid="{10C448D5-14EF-9E47-94A6-5FFA6FCC9ED6}"/>
+    <hyperlink ref="F25" r:id="rId20" xr:uid="{066BCB09-5AFE-E241-8FA3-B67C45413CE9}"/>
+    <hyperlink ref="F9" r:id="rId21" xr:uid="{FCA10F6F-0E2F-A745-BEA5-299232476948}"/>
+    <hyperlink ref="G21" r:id="rId22" xr:uid="{613A156B-2A3F-EA44-BE68-A10830DA93E5}"/>
+    <hyperlink ref="F21" r:id="rId23" xr:uid="{5179697E-2EBB-D94B-88A9-A5A89DBA10C2}"/>
+    <hyperlink ref="F23" r:id="rId24" xr:uid="{2886ABF2-7BA7-A44B-9F27-B67939E671AE}"/>
+    <hyperlink ref="F24" r:id="rId25" xr:uid="{FC993E15-25DF-1641-B5A4-E1ECEFE4D025}"/>
+    <hyperlink ref="G22" r:id="rId26" xr:uid="{6D9CDD56-55E4-FC40-968B-D9A59E13F608}"/>
+    <hyperlink ref="F22" r:id="rId27" xr:uid="{8CBE15EC-1CE7-554E-A629-0BD9B36B213A}"/>
     <hyperlink ref="G3" r:id="rId28" display="60026" xr:uid="{90AB44FE-71A6-1146-A2F9-381957D452D2}"/>
     <hyperlink ref="G4" r:id="rId29" xr:uid="{8EBD2768-259D-1C46-BDF7-4A5760666E5A}"/>
-    <hyperlink ref="G6" r:id="rId30" xr:uid="{DF40C92A-F8A9-B643-9C59-CC7067E3DE51}"/>
-    <hyperlink ref="G7" r:id="rId31" xr:uid="{5460669D-C724-4942-BEA4-B4DDE8FB3CAA}"/>
-    <hyperlink ref="G10" r:id="rId32" xr:uid="{BFE4423F-C947-114E-8BD2-CBCDE583F0D3}"/>
-    <hyperlink ref="G13" r:id="rId33" xr:uid="{ECB604CB-66CF-D14C-B6E5-BA354DBE50F6}"/>
-    <hyperlink ref="G14" r:id="rId34" xr:uid="{7CD08184-70EB-DC4C-97BC-910C5306B1BF}"/>
-    <hyperlink ref="G15" r:id="rId35" xr:uid="{88AF325C-C670-AB48-B224-2E4FC1CA9179}"/>
-    <hyperlink ref="G16" r:id="rId36" xr:uid="{483457BE-3262-8A40-9B25-4C17B13550EB}"/>
-    <hyperlink ref="G17" r:id="rId37" xr:uid="{1CC9BF49-D277-B34D-961C-92BE8267175F}"/>
-    <hyperlink ref="G18" r:id="rId38" xr:uid="{B7366863-F543-A245-82E3-60976730A21C}"/>
-    <hyperlink ref="G19" r:id="rId39" xr:uid="{8206F53C-A4E8-5749-8BE5-2BCFB559AB8E}"/>
-    <hyperlink ref="G5" r:id="rId40" xr:uid="{B3AD4667-DA8A-904A-9CF2-618CCFA38D0B}"/>
-    <hyperlink ref="F25" r:id="rId41" xr:uid="{F4ECFD96-C404-9A44-BD56-5DA215ABBF8B}"/>
-    <hyperlink ref="G25" r:id="rId42" xr:uid="{70B091ED-C1A4-3A44-BDFC-C6D7327CDBCD}"/>
+    <hyperlink ref="G7" r:id="rId30" xr:uid="{DF40C92A-F8A9-B643-9C59-CC7067E3DE51}"/>
+    <hyperlink ref="G8" r:id="rId31" xr:uid="{5460669D-C724-4942-BEA4-B4DDE8FB3CAA}"/>
+    <hyperlink ref="G11" r:id="rId32" xr:uid="{BFE4423F-C947-114E-8BD2-CBCDE583F0D3}"/>
+    <hyperlink ref="G14" r:id="rId33" xr:uid="{ECB604CB-66CF-D14C-B6E5-BA354DBE50F6}"/>
+    <hyperlink ref="G15" r:id="rId34" xr:uid="{7CD08184-70EB-DC4C-97BC-910C5306B1BF}"/>
+    <hyperlink ref="G16" r:id="rId35" xr:uid="{88AF325C-C670-AB48-B224-2E4FC1CA9179}"/>
+    <hyperlink ref="G17" r:id="rId36" xr:uid="{483457BE-3262-8A40-9B25-4C17B13550EB}"/>
+    <hyperlink ref="G18" r:id="rId37" xr:uid="{1CC9BF49-D277-B34D-961C-92BE8267175F}"/>
+    <hyperlink ref="G19" r:id="rId38" xr:uid="{B7366863-F543-A245-82E3-60976730A21C}"/>
+    <hyperlink ref="G20" r:id="rId39" xr:uid="{8206F53C-A4E8-5749-8BE5-2BCFB559AB8E}"/>
+    <hyperlink ref="G6" r:id="rId40" xr:uid="{B3AD4667-DA8A-904A-9CF2-618CCFA38D0B}"/>
+    <hyperlink ref="F26" r:id="rId41" xr:uid="{F4ECFD96-C404-9A44-BD56-5DA215ABBF8B}"/>
+    <hyperlink ref="G26" r:id="rId42" xr:uid="{70B091ED-C1A4-3A44-BDFC-C6D7327CDBCD}"/>
+    <hyperlink ref="G5" r:id="rId43" xr:uid="{2DFD3C28-A7DD-CA4B-9FA0-979D798FC246}"/>
+    <hyperlink ref="F5" r:id="rId44" xr:uid="{BFBF3029-2435-4646-8A40-735F707934C9}"/>
+    <hyperlink ref="H10" r:id="rId45" xr:uid="{3C71D493-8D17-3740-943E-6F9E4E33701A}"/>
+    <hyperlink ref="H12" r:id="rId46" xr:uid="{CA726432-CD10-D94E-A217-6A25E6C1D15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E13:E16" numberStoredAsText="1"/>
+    <ignoredError sqref="E14:E17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEE308A-D149-EF40-BE09-A34256E797F5}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2401,6 +2465,122 @@
         <v>4510.1399999999994</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="42">
+        <v>44593</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14">
+        <v>387.29</v>
+      </c>
+      <c r="G14">
+        <v>549.17999999999995</v>
+      </c>
+      <c r="H14">
+        <f>F14+G14</f>
+        <v>936.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="42">
+        <v>44593</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15">
+        <v>797.1</v>
+      </c>
+      <c r="G15">
+        <v>590.29999999999995</v>
+      </c>
+      <c r="H15">
+        <f>F15+G15</f>
+        <v>1387.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="42">
+        <v>44614</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16">
+        <v>505.44</v>
+      </c>
+      <c r="G16">
+        <v>236</v>
+      </c>
+      <c r="H16">
+        <f>F16+G16</f>
+        <v>741.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="42">
+        <v>44617</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17">
+        <v>505.92</v>
+      </c>
+      <c r="G17">
+        <v>236</v>
+      </c>
+      <c r="H17">
+        <f>F17+G17</f>
+        <v>741.92000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <f>SUM(F14:F16)</f>
+        <v>1689.8300000000002</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G14:G17)</f>
+        <v>1611.48</v>
+      </c>
+      <c r="H18">
+        <f>SUM(H14:H17)</f>
+        <v>3807.23</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{D550EA50-9C44-A443-90F2-FDA717C60B8A}"/>
@@ -2409,6 +2589,9 @@
     <hyperlink ref="E9" r:id="rId4" xr:uid="{D0BBF5FA-E15F-F34C-B2F0-1C2ED956C2F2}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{A8652A87-CDD5-E242-B046-8D81EE22DE50}"/>
     <hyperlink ref="E11" r:id="rId6" xr:uid="{259EDE57-A3E7-E541-8A3F-7C0D4CF4BF20}"/>
+    <hyperlink ref="E15" r:id="rId7" xr:uid="{7541DEB4-F288-8B46-A39C-23C6A08145E8}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{9915FBE3-0302-624D-91CC-FE7815A2D03D}"/>
+    <hyperlink ref="E17" r:id="rId9" xr:uid="{143F4188-41FE-FB4D-8D15-C3786255948E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/midi_splitter-bom.xlsx
+++ b/midi_splitter-bom.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max_romanov/projects/midi_splitter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED25C8A-E63E-1F4B-89BF-A277D2D73FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671E89C1-6579-0341-AD36-FB1C6EAACB5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="960" windowWidth="27240" windowHeight="16540" activeTab="1" xr2:uid="{A1306BC4-A011-3F4B-B468-299FA49377F1}"/>
+    <workbookView xWindow="1180" yWindow="960" windowWidth="27240" windowHeight="16540" activeTab="2" xr2:uid="{A1306BC4-A011-3F4B-B468-299FA49377F1}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM" sheetId="1" r:id="rId1"/>
-    <sheet name="Orders" sheetId="2" r:id="rId2"/>
+    <sheet name="x6" sheetId="1" r:id="rId1"/>
+    <sheet name="x6-2" sheetId="3" r:id="rId2"/>
+    <sheet name="Orders" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -482,6 +483,99 @@
   </si>
   <si>
     <t>L-KLS1-DC-005A-2.0</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>R14,R16</t>
+  </si>
+  <si>
+    <t>1n914</t>
+  </si>
+  <si>
+    <t>mm74hc540mtcx</t>
+  </si>
+  <si>
+    <t>TSSOP-20</t>
+  </si>
+  <si>
+    <t>MM74HC540MTCX</t>
+  </si>
+  <si>
+    <t>Восемь буферных элементов, драйверов с тремя состояниями на выходе</t>
+  </si>
+  <si>
+    <t>#1517354</t>
+  </si>
+  <si>
+    <t>Rezonit</t>
+  </si>
+  <si>
+    <t>#564131</t>
+  </si>
+  <si>
+    <t>#251110</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB104</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>L-13GD</t>
+  </si>
+  <si>
+    <t>Светодиод Flat Top зеленый 70° d=2мм 10мКд 568нМ</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>#307856</t>
+  </si>
+  <si>
+    <t>Flat Top красный</t>
+  </si>
+  <si>
+    <t>#3638121</t>
+  </si>
+  <si>
+    <t>#4000903717748</t>
+  </si>
+  <si>
+    <t>#32874392571</t>
+  </si>
+  <si>
+    <t>#1005002547515126</t>
+  </si>
+  <si>
+    <t>#5017461801272510</t>
+  </si>
+  <si>
+    <t>#07863451</t>
+  </si>
+  <si>
+    <t>#8341083</t>
+  </si>
+  <si>
+    <t>#5017385647722510</t>
+  </si>
+  <si>
+    <t>#8338098</t>
+  </si>
+  <si>
+    <t>#8341104</t>
+  </si>
+  <si>
+    <t>rezonit.ru</t>
+  </si>
+  <si>
+    <t>chipdip.ru</t>
+  </si>
+  <si>
+    <t>L-13ID</t>
   </si>
 </sst>
 </file>
@@ -492,7 +586,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ _R_U_B"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -510,8 +604,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,8 +632,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -631,12 +739,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -738,6 +857,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,12 +884,38 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -760,6 +923,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF2F2F2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1071,7 +1239,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1092,41 +1260,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="56"/>
-      <c r="H1" s="55" t="s">
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1194,13 +1362,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="60" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -1234,11 +1402,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="60"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="52" t="s">
         <v>149</v>
       </c>
@@ -2179,11 +2347,792 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76FAADAA-4ED6-1B47-9ADF-86E276BEC7B9}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+    </row>
+    <row r="2" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="13">
+        <v>1</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J3" s="24">
+        <v>224</v>
+      </c>
+      <c r="K3" s="13">
+        <v>21</v>
+      </c>
+      <c r="L3" s="24"/>
+      <c r="M3" s="22">
+        <f t="shared" ref="M3:M17" si="0">J3*K3+L3</f>
+        <v>4704</v>
+      </c>
+      <c r="N3" s="25">
+        <f t="shared" ref="N3:N17" si="1">M3/K3*B3</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="11">
+        <v>44642</v>
+      </c>
+      <c r="J4" s="23">
+        <v>14</v>
+      </c>
+      <c r="K4" s="8">
+        <v>20</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="N4" s="26">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="13">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="16">
+        <v>44625</v>
+      </c>
+      <c r="J5" s="24">
+        <f>355.04/K5</f>
+        <v>17.752000000000002</v>
+      </c>
+      <c r="K5" s="13">
+        <v>20</v>
+      </c>
+      <c r="L5" s="24">
+        <v>99.52</v>
+      </c>
+      <c r="M5" s="24">
+        <f t="shared" si="0"/>
+        <v>454.56000000000006</v>
+      </c>
+      <c r="N5" s="27">
+        <f t="shared" si="1"/>
+        <v>22.728000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="11">
+        <v>44641</v>
+      </c>
+      <c r="J6" s="23">
+        <v>26</v>
+      </c>
+      <c r="K6" s="8">
+        <v>21</v>
+      </c>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23">
+        <f t="shared" si="0"/>
+        <v>546</v>
+      </c>
+      <c r="N6" s="26">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="16">
+        <v>44634</v>
+      </c>
+      <c r="J7" s="24">
+        <f>6604.81/K7</f>
+        <v>22.016033333333336</v>
+      </c>
+      <c r="K7" s="13">
+        <v>300</v>
+      </c>
+      <c r="L7" s="24">
+        <v>1711.62</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>8316.43</v>
+      </c>
+      <c r="N7" s="27">
+        <f t="shared" si="1"/>
+        <v>194.05003333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I8" s="11">
+        <v>44642</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="8">
+        <v>20</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23">
+        <v>7624.08</v>
+      </c>
+      <c r="N8" s="26">
+        <f t="shared" si="1"/>
+        <v>381.20400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="13">
+        <v>13</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I9" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J9" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="13">
+        <v>800</v>
+      </c>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="8">
+        <v>400</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N10" s="26">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I11" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J11" s="24">
+        <v>0.32</v>
+      </c>
+      <c r="K11" s="13">
+        <v>100</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="N11" s="27">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="8">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I12" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J12" s="23">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K12" s="8">
+        <v>30</v>
+      </c>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>8.4</v>
+      </c>
+      <c r="N12" s="26">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I13" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J13" s="24">
+        <v>0.66</v>
+      </c>
+      <c r="K13" s="13">
+        <v>400</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="N13" s="27">
+        <f t="shared" si="1"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" s="72">
+        <v>1</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="77">
+        <v>44642</v>
+      </c>
+      <c r="J14" s="78">
+        <v>29</v>
+      </c>
+      <c r="K14" s="72">
+        <v>70</v>
+      </c>
+      <c r="L14" s="78"/>
+      <c r="M14" s="79">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
+      <c r="N14" s="80">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I15" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J15" s="70">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K15" s="13">
+        <v>3</v>
+      </c>
+      <c r="L15" s="70"/>
+      <c r="M15" s="24">
+        <f t="shared" si="0"/>
+        <v>29.400000000000002</v>
+      </c>
+      <c r="N15" s="27">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I16" s="16">
+        <v>44642</v>
+      </c>
+      <c r="J16" s="23">
+        <v>11.3</v>
+      </c>
+      <c r="K16" s="8">
+        <v>40</v>
+      </c>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23">
+        <f>J16*K16+L16</f>
+        <v>452</v>
+      </c>
+      <c r="N16" s="26">
+        <f>M16/K16*B16</f>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="29">
+        <v>1</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1812</v>
+      </c>
+      <c r="F17" s="30"/>
+      <c r="G17" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2">
+        <v>44642</v>
+      </c>
+      <c r="J17" s="28">
+        <f>582.63/K17</f>
+        <v>9.7104999999999997</v>
+      </c>
+      <c r="K17" s="29">
+        <v>60</v>
+      </c>
+      <c r="L17" s="28">
+        <v>245.58</v>
+      </c>
+      <c r="M17" s="24">
+        <f t="shared" si="0"/>
+        <v>828.21</v>
+      </c>
+      <c r="N17" s="27">
+        <f t="shared" si="1"/>
+        <v>13.803500000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="2"/>
+      <c r="L18" s="28">
+        <f>SUM(L3:L17)</f>
+        <v>2056.7199999999998</v>
+      </c>
+      <c r="M18" s="28">
+        <f>SUM(M3:M17)</f>
+        <v>25869.08</v>
+      </c>
+      <c r="N18" s="28">
+        <f>SUM(N3:N17)</f>
+        <v>931.58553333333339</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{7592010A-2839-C542-A68C-36B429A3F9E6}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{E8F78C2F-9B2F-F34B-8F0A-F0DE0F8892E4}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{007969DC-82B9-0D42-BB4A-C47A061181AF}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{2F6B5033-470A-634F-B48F-89129456372D}"/>
+    <hyperlink ref="F9" r:id="rId5" xr:uid="{3FD2808F-E81E-7C43-9123-EA1CF3D01AA9}"/>
+    <hyperlink ref="F10" r:id="rId6" xr:uid="{3E936503-C830-DD40-9D5E-FF803B685AD8}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{8209FFA3-6A3A-F947-B81D-56F966FB4B01}"/>
+    <hyperlink ref="G3" r:id="rId8" display="60026" xr:uid="{8CF3F62A-B870-EF47-A50B-24EBC51B30F1}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{7E7EB2DE-CDD6-2244-AB7C-2AE7CE204583}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{E1475508-387A-814D-B097-F8ADA07A31D9}"/>
+    <hyperlink ref="G12" r:id="rId11" xr:uid="{6828B6EA-4193-284A-9C34-01363272634C}"/>
+    <hyperlink ref="G13" r:id="rId12" xr:uid="{DFF35B3A-492E-774B-9C22-B3B0F2E31139}"/>
+    <hyperlink ref="F4" r:id="rId13" xr:uid="{3F21A7B8-3ACF-AF42-9A9D-0AA4F57E7802}"/>
+    <hyperlink ref="F6" r:id="rId14" display="https://www.chipdip.ru/product/mm74hc540mtcx" xr:uid="{BACB03E8-DF15-EC48-9253-E43577DBAF0F}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{916D04E9-148A-7A42-86D7-557B74784CDB}"/>
+    <hyperlink ref="F14" r:id="rId16" xr:uid="{ED837917-924D-1840-9B5F-E0C10F148C1A}"/>
+    <hyperlink ref="G15" r:id="rId17" xr:uid="{6577E776-FEB7-A847-BB6F-41363D533E4F}"/>
+    <hyperlink ref="G5" r:id="rId18" xr:uid="{1AABE177-007B-3C46-9DEB-15E464962369}"/>
+    <hyperlink ref="G7" r:id="rId19" xr:uid="{4FB16798-FF7D-4649-B3B7-1E51E9D9FF48}"/>
+    <hyperlink ref="H7" r:id="rId20" xr:uid="{2F6E14C1-9827-6F4B-9B95-E025B2332F01}"/>
+    <hyperlink ref="H8" r:id="rId21" xr:uid="{F35AE100-86A0-DB47-A05F-F1C1D0D98627}"/>
+    <hyperlink ref="H3" r:id="rId22" xr:uid="{8F8DC0E8-B428-5245-BF6E-A364D12EFC57}"/>
+    <hyperlink ref="H4" r:id="rId23" xr:uid="{C4809539-778C-604D-823A-7DA5D42F224E}"/>
+    <hyperlink ref="H5" r:id="rId24" xr:uid="{95735363-6864-3C4C-90EC-9B56D60A568B}"/>
+    <hyperlink ref="H6" r:id="rId25" xr:uid="{3F755EEE-AFF3-924C-9DAB-5F703EFB75F3}"/>
+    <hyperlink ref="H9" r:id="rId26" xr:uid="{749C49C4-A5DD-8E4C-961A-76CD2609BCF6}"/>
+    <hyperlink ref="H10" r:id="rId27" xr:uid="{010946ED-9FFD-8446-8811-EF3F6434DD01}"/>
+    <hyperlink ref="H11" r:id="rId28" xr:uid="{539ECBEA-FEDD-7B4D-9F52-98102B508A03}"/>
+    <hyperlink ref="H12" r:id="rId29" xr:uid="{1ECB32E6-296B-7F41-A817-94F42EEEF76D}"/>
+    <hyperlink ref="H13" r:id="rId30" xr:uid="{E5414779-9D09-9C49-8B14-C8D589641AD7}"/>
+    <hyperlink ref="H15" r:id="rId31" xr:uid="{6A53B4A2-CE20-C742-B4C6-ED420DBF8F40}"/>
+    <hyperlink ref="H16" r:id="rId32" xr:uid="{D9490399-74C5-CA43-A5CF-DBB8AB039CF0}"/>
+    <hyperlink ref="H14" r:id="rId33" xr:uid="{3C14CFA5-029B-BA47-A7AC-FDDE3FA35FB5}"/>
+    <hyperlink ref="G17" r:id="rId34" xr:uid="{E7D8D255-CB26-8144-8E25-46F25720CDBA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEE308A-D149-EF40-BE09-A34256E797F5}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2581,7 +3530,199 @@
         <v>3807.23</v>
       </c>
     </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="85" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="42">
+        <v>44625</v>
+      </c>
+      <c r="E20" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="F20">
+        <v>355.04</v>
+      </c>
+      <c r="G20">
+        <v>99.52</v>
+      </c>
+      <c r="H20">
+        <f>F20+G20</f>
+        <v>454.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B21">
+        <v>300</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="42">
+        <v>44634</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21">
+        <v>6604.81</v>
+      </c>
+      <c r="G21">
+        <v>1711.62</v>
+      </c>
+      <c r="H21">
+        <f>F21+G21</f>
+        <v>8316.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="42">
+        <v>44641</v>
+      </c>
+      <c r="E22" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22">
+        <v>651</v>
+      </c>
+      <c r="H22">
+        <f>F22+G22</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D23" s="42">
+        <v>44642</v>
+      </c>
+      <c r="E23" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="H23">
+        <v>7624.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="85"/>
+      <c r="C24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="42">
+        <v>44642</v>
+      </c>
+      <c r="E24" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="F24">
+        <v>4430</v>
+      </c>
+      <c r="H24">
+        <f>F24+G24</f>
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="42">
+        <v>44642</v>
+      </c>
+      <c r="E25" s="82" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25">
+        <v>10778.4</v>
+      </c>
+      <c r="G25">
+        <v>236</v>
+      </c>
+      <c r="H25">
+        <f>F25+G25</f>
+        <v>11014.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="42">
+        <v>44642</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26">
+        <v>2030</v>
+      </c>
+      <c r="H26">
+        <f>F26+G26</f>
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="42">
+        <v>44642</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27">
+        <v>582.63</v>
+      </c>
+      <c r="G27">
+        <v>245.58</v>
+      </c>
+      <c r="H27">
+        <f>F27+G27</f>
+        <v>828.21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <f>SUM(H20:H27)</f>
+        <v>35348.68</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="A20:H27">
+    <sortCondition ref="D20:D27"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{D550EA50-9C44-A443-90F2-FDA717C60B8A}"/>
     <hyperlink ref="E4" r:id="rId2" xr:uid="{9AF8BA5C-986A-9F40-933A-5891D237766F}"/>
@@ -2592,6 +3733,14 @@
     <hyperlink ref="E15" r:id="rId7" xr:uid="{7541DEB4-F288-8B46-A39C-23C6A08145E8}"/>
     <hyperlink ref="E16" r:id="rId8" xr:uid="{9915FBE3-0302-624D-91CC-FE7815A2D03D}"/>
     <hyperlink ref="E17" r:id="rId9" xr:uid="{143F4188-41FE-FB4D-8D15-C3786255948E}"/>
+    <hyperlink ref="E23" r:id="rId10" display="https://service.rezonit.ru/orders/1168288" xr:uid="{B7703450-7663-DC4B-B792-F4CDB43C1D13}"/>
+    <hyperlink ref="E20" r:id="rId11" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017385647722510&amp;orderSource=GlobalTrade" xr:uid="{D1E2FF23-C973-9544-A4BA-822EE2012243}"/>
+    <hyperlink ref="E22" r:id="rId12" display="https://www.chipdip.ru/order/detail/8338098" xr:uid="{EA91DE6B-FF6C-1243-84D9-8D68AB65604A}"/>
+    <hyperlink ref="E21" r:id="rId13" display="https://trade.aliexpress.ru/order_detail.htm?spm=a2g39.orderlist.0.0.43064aa6aMZspA&amp;orderId=5017461801272510&amp;orderSource=GlobalTrade" xr:uid="{92D5B84E-6A32-944E-8290-157A16F41C6A}"/>
+    <hyperlink ref="E25" r:id="rId14" display="https://www.terraelectronica.ru/order/07863451" xr:uid="{D2BCC303-8E71-2544-936A-3955C9B05A93}"/>
+    <hyperlink ref="E26" r:id="rId15" display="https://www.chipdip.ru/order/detail/8341104" xr:uid="{5990DDED-7BC1-EB46-940B-C395749F80D2}"/>
+    <hyperlink ref="E27" r:id="rId16" display="https://www.aliexpress.ru/item/4000903717748.html" xr:uid="{83E0D37B-0463-0E4E-90C4-68A8F7FE34EB}"/>
+    <hyperlink ref="E24" r:id="rId17" display="https://www.chipdip.ru/order/detail/8341083" xr:uid="{6D105DFB-EB00-2B41-8929-2D48FD3A004C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
